--- a/experience/sub-02PC/resultats_RT_sub-02PC.xlsx
+++ b/experience/sub-02PC/resultats_RT_sub-02PC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-02PC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/experience/sub-02PC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{49F1C66E-83B0-4567-8AEB-06A236952D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:40009_{49F1C66E-83B0-4567-8AEB-06A236952D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0439EF06-5F21-4A7E-B553-1F8936F7DFAE}"/>
   <bookViews>
-    <workbookView xWindow="12260" yWindow="2290" windowWidth="13700" windowHeight="7810"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultats_RT_sub-02PC (2)" sheetId="2" r:id="rId1"/>
@@ -19,20 +19,32 @@
   <definedNames>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'resultats_RT_sub-02PC (2)'!$A$1:$M$11</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - resultats_RT_sub-02PC" description="Connexion à la requête « resultats_RT_sub-02PC » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - resultats_RT_sub-02PC" description="Connexion à la requête « resultats_RT_sub-02PC » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=resultats_RT_sub-02PC;Extended Properties=&quot;&quot;" command="SELECT * FROM [resultats_RT_sub-02PC]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Essai,Haut 0.2,Haut 0.5,Haut 0.8,Bas 0.2,Bas 0.5,Bas 0.8,Gauche 0.2,Gauche 0.5,Gauche 0.8,Droite 0.2,Droite 0.5,Droite 0.8</t>
   </si>
@@ -151,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -635,12 +647,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -724,43 +742,43 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -779,7 +797,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="13">
       <queryTableField id="1" name="Essai" tableColumnId="1"/>
@@ -801,44 +819,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="resultats_RT_sub_02PC" displayName="resultats_RT_sub_02PC" ref="A1:M12" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:M11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="resultats_RT_sub_02PC" displayName="resultats_RT_sub_02PC" ref="A1:M12" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:M11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="1" name="Essai" totalsRowLabel="Moyenne" queryTableFieldId="1" dataDxfId="25" totalsRowDxfId="12"/>
-    <tableColumn id="2" uniqueName="2" name="Haut 0,2" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="24" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" totalsRowLabel="Moyenne" queryTableFieldId="1" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Haut 0,2" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Haut 0,2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="Haut 0,5" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="23" totalsRowDxfId="10">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Haut 0,5" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Haut 0,5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" uniqueName="4" name="Haut 0,8" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="22" totalsRowDxfId="9">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Haut 0,8" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Haut 0,8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" uniqueName="5" name="Bas 0,2" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="21" totalsRowDxfId="8">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Bas 0,2" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Bas 0,2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" uniqueName="6" name="Bas 0,5" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="20" totalsRowDxfId="7">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Bas 0,5" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Bas 0,5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" uniqueName="7" name="Bas 0,8" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="19" totalsRowDxfId="6">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Bas 0,8" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Bas 0,8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" uniqueName="8" name="Gauche 0,2" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="18" totalsRowDxfId="5">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Gauche 0,2" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Gauche 0,2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" uniqueName="9" name="Gauche 0,5" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="17" totalsRowDxfId="4">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Gauche 0,5" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Gauche 0,5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" uniqueName="10" name="Gauche 0,8" totalsRowFunction="custom" queryTableFieldId="10" dataDxfId="16" totalsRowDxfId="3">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Gauche 0,8" totalsRowFunction="custom" queryTableFieldId="10" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Gauche 0,8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" uniqueName="11" name="Droite 0,2" totalsRowFunction="custom" queryTableFieldId="11" dataDxfId="15" totalsRowDxfId="2">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Droite 0,2" totalsRowFunction="custom" queryTableFieldId="11" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Droite 0,2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" uniqueName="12" name="Droite 0,5" totalsRowFunction="custom" queryTableFieldId="12" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Droite 0,5" totalsRowFunction="custom" queryTableFieldId="12" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Droite 0,5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" uniqueName="13" name="Droite 0,8" totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="13" totalsRowDxfId="0">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Droite 0,8" totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_02PC[Droite 0,8])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1142,11 +1160,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1765,34 +1783,117 @@
         <v>0.13774409206055629</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5">
+        <f>AVERAGE(resultats_RT_sub_02PC[[#Totals],[Haut 0,2]:[Bas 0,8]])</f>
+        <v>0.38565974833424294</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <f>AVERAGE(resultats_RT_sub_02PC[[#Totals],[Gauche 0,2]:[Droite 0,8]])</f>
+        <v>0.37721402832927753</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5">
+        <f>AVERAGE(B13:G13)</f>
+        <v>9.9363946074618792E-2</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
+        <f>AVERAGE(H13:M13)</f>
+        <v>4.1740575065655074E-2</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="5">
+        <f>AVERAGE(B14:G14)</f>
+        <v>0.22704564239680092</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
+        <f>AVERAGE(H14:M14)</f>
+        <v>0.11035050640461218</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B18" s="4">
         <f>AVERAGE(resultats_RT_sub_02PC[[#Totals],[Haut 0,2]:[Droite 0,8]])</f>
         <v>0.38143688833176026</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B19" s="2">
         <f>_xlfn.STDEV.P(B13:M13)</f>
         <v>0.10129489620883868</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B20" s="4">
         <f>AVERAGE(B14:M14)</f>
         <v>0.16869807440070653</v>
       </c>
     </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1801,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
